--- a/biology/Zoologie/Bryocorini/Bryocorini.xlsx
+++ b/biology/Zoologie/Bryocorini/Bryocorini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Bryocorini sont une tribu d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae et de la sous-famille des Bryocorinae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Bryocorini sont une tribu d'insectes hémiptères hétéroptères (punaises) de la famille des Miridae et de la sous-famille des Bryocorinae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les membres de cette tribu se caractérisent par les critères suivants : 
 les yeux sont petits et placés proches de la marge antérieure du pronotum ;
@@ -520,7 +534,7 @@
 le pronotum forme un étroit collier à sa marge antérieure, délimité par une profonde suture ;
 l'aire évaporatoire de la glande est ovale, fortement surélevée et convexe, avec une unique soie ;
 l'apex des tarses présente des pseudopulvilli sans parempodia ;
-la capsule génitale a une large ouverture, l'édéage est petit, avec d'autres critères des organes génitaux[2].</t>
+la capsule génitale a une large ouverture, l'édéage est petit, avec d'autres critères des organes génitaux.</t>
         </is>
       </c>
     </row>
@@ -548,9 +562,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La monophylie de cette tribu est confirmée par l'analyse de Konstantinov et Knyshov. Au plan phylogénétique, elle est considérée comme le groupe-frère des Eccritotarsini[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La monophylie de cette tribu est confirmée par l'analyse de Konstantinov et Knyshov. Au plan phylogénétique, elle est considérée comme le groupe-frère des Eccritotarsini.
 Cette même analyse transfère le genre Bryocorella dans les Bryocorini, élève le sous-genre Cobalorrhynchus Reuter, 1906 au niveau de genre, et décrit un nouveau genre, Diplazicoris, monotypique. Dès lors, la tribu comprend sept genres pour une cinquantaine d'espèces. 
 </t>
         </is>
@@ -580,16 +596,18 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (15 mai 2022)[3] corrigé à partir de Konstantinov &amp; Knyshov (2015)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (15 mai 2022) corrigé à partir de Konstantinov &amp; Knyshov (2015) :
 genre Bryocorella Carvalho, 1956, (auparavant dans  les Eccritotarsini), monotypique, Micronésie.
 genre Bryocoris Fallén, 1829, dix espèces, Paléarctique (en Chine, Japon, une espèce jusqu'en Europe).
 genre Bryophilocapsus Yasunaga, 2000, monotypique (une seule espèce), Japon.
 genre Cobalorrhynchus Reuter, 1906, ancien sous-genre de Bryocoris élevé au rang de genre, onze espèces retreintes au Sud et au Centre de la Chine, avec une seule présente également au Japon.
 genre Diplazicoris Konstantinov &amp; Knyshov, 2015, monotypique, Indonésie.
 genre Hekista Kirkaldy, 1902, quatre espèces, Asie du Sud-Est et Nouvelle-Guinée.
-genre Monalocoris Dahlbom, 1851, dix-neuf espèces, répartition quasi-cosmopolite[4].
+genre Monalocoris Dahlbom, 1851, dix-neuf espèces, répartition quasi-cosmopolite.
 			Bryocoris pteridis, mâle probable, macroptère
 			Monalocoris filicis
 </t>
